--- a/xlsx/太阳能电池_intext.xlsx
+++ b/xlsx/太阳能电池_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
   <si>
     <t>太阳能电池</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-National Renewable Energy Laboratory</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_太阳能电池</t>
+    <t>政策_政策_混合动力车辆_太阳能电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E5%85%89</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E6%9D%90%E6%96%99</t>
   </si>
   <si>
-    <t>有機材料</t>
+    <t>有机材料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%99%B6%E7%A1%85</t>
   </si>
   <si>
-    <t>單晶硅</t>
+    <t>单晶硅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%99%B6%E7%A1%85</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>電氣</t>
+    <t>电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E5%8B%A2</t>
   </si>
   <si>
-    <t>電動勢</t>
+    <t>电动势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%92</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E7%9B%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>照相機</t>
+    <t>照相机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%9D%E5%85%89%E8%AE%A1</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>半導體</t>
+    <t>半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>能源危機</t>
+    <t>能源危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
+    <t>纳米比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -335,19 +335,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E8%BC%89</t>
   </si>
   <si>
-    <t>負載</t>
+    <t>负载</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>中華人民共和國財政部</t>
+    <t>中华人民共和国财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P%E5%9E%8B%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>直流電</t>
+    <t>直流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%9B%BB</t>
   </si>
   <si>
-    <t>家電</t>
+    <t>家电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>電器</t>
+    <t>电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E5%8F%98%E5%99%A8</t>
@@ -407,25 +407,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3</t>
   </si>
   <si>
-    <t>鎳</t>
+    <t>镍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%98</t>
   </si>
   <si>
-    <t>鎘</t>
+    <t>镉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3%E6%B0%AB%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鎳氫電池</t>
+    <t>镍氢电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3%E9%8E%98%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鎳鎘電池</t>
+    <t>镍镉电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B1%A1%E6%9F%93</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%A3%93</t>
   </si>
   <si>
-    <t>低壓</t>
+    <t>低压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%99%B6%E7%A1%85</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%95%B4%E5%90%88%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>建築整合太陽能</t>
+    <t>建筑整合太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E6%B3%A2</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%B3%A2</t>
   </si>
   <si>
-    <t>長波</t>
+    <t>长波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B7%E5%8C%96%E9%8E%B5</t>
   </si>
   <si>
-    <t>砷化鎵</t>
+    <t>砷化镓</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ternary_compound</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%A7%86%E6%8E%A5%E8%A7%B8</t>
   </si>
   <si>
-    <t>歐姆接觸</t>
+    <t>欧姆接触</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E8%83%BD</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B7%E5%B9%95%E7%89%86</t>
   </si>
   <si>
-    <t>帷幕牆</t>
+    <t>帷幕墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A4%8F%E5%9F%83%E5%B0%94%C2%B7%E6%A0%BC%E9%9B%B7%E7%AD%96%E5%B0%94</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%91</t>
   </si>
   <si>
-    <t>鉑</t>
+    <t>铂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E5%8C%96%E5%89%82</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A7%A3%E8%B3%AA</t>
   </si>
   <si>
-    <t>電解質</t>
+    <t>电解质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E9%9A%99</t>
@@ -659,25 +659,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E4%BC%8F%E9%99%A3%E5%88%97</t>
   </si>
   <si>
-    <t>光伏陣列</t>
+    <t>光伏阵列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%89%87</t>
   </si>
   <si>
-    <t>遊艇</t>
+    <t>游艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>太陽能發電</t>
+    <t>太阳能发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%8A%E6%8E%A5</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E5%83%B9</t>
   </si>
   <si>
-    <t>股價</t>
+    <t>股价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%9B%E7%AC%AC%E4%B8%80%E6%A0%B8%E7%94%B5%E7%AB%99%E4%BA%8B%E6%95%85</t>
@@ -707,19 +707,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%B0%B4%E8%93%84%E8%83%BD%E7%94%B5%E7%AB%99</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%84%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>蓄電池</t>
+    <t>蓄电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%BD%AE%E5%82%A8%E8%83%BD</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>風力發電廠</t>
+    <t>风力发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%94%B5</t>
@@ -791,25 +791,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1</t>
   </si>
   <si>
-    <t>地熱</t>
+    <t>地热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E7%85%A4%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>燃煤發電</t>
+    <t>燃煤发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠建築</t>
+    <t>绿建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽熱能</t>
+    <t>太阳热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E7%86%B1%E6%B0%B4%E5%99%A8</t>
   </si>
   <si>
-    <t>太陽能熱水器</t>
+    <t>太阳能热水器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Solar_chimney</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E4%BC%8F%E6%A8%A1%E7%B5%84</t>
   </si>
   <si>
-    <t>光伏模組</t>
+    <t>光伏模组</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Photovoltaic_power_station</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%82%B3%E5%B0%8E%E7%99%BC%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>熱傳導發電機</t>
+    <t>热传导发电机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Solar_chemical</t>
@@ -1229,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%B6%B2%E5%84%B2%E8%83%BD</t>
   </si>
   <si>
-    <t>電網儲能</t>
+    <t>电网储能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E7%BD%91%E7%94%B5%E4%BB%B7%E8%A1%A5%E8%B4%B4%E6%94%BF%E7%AD%96</t>
@@ -1253,25 +1253,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>電源成本</t>
+    <t>电源成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>太陽能車</t>
+    <t>太阳能车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>電動飛機</t>
+    <t>电动飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E8%88%B9</t>
   </si>
   <si>
-    <t>太陽能船</t>
+    <t>太阳能船</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Solar_balloon</t>
@@ -1289,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D%E5%AD%B8</t>
   </si>
   <si>
-    <t>園藝學</t>
+    <t>园艺学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%AE%A4</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A1%E5%85%89</t>
   </si>
   <si>
-    <t>採光</t>
+    <t>采光</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Solar_furnace</t>
@@ -1355,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E7%94%B0</t>
   </si>
   <si>
-    <t>鹽田</t>
+    <t>盐田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E7%81%B6</t>
@@ -1403,9 +1403,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
   </si>
   <si>
-    <t>半导体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%BE%81%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
   </si>
   <si>
@@ -1433,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%B8%B6</t>
   </si>
   <si>
-    <t>價帶</t>
+    <t>价带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E6%B5%81%E5%AD%90</t>
@@ -1463,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E9%AB%94_(%E5%8D%8A%E5%B0%8E%E9%AB%94)</t>
   </si>
   <si>
-    <t>受體 (半導體)</t>
+    <t>受体 (半导体)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%AF%BC%E4%BD%93%E6%BF%80%E5%85%89</t>
@@ -1565,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%A5%B5%E9%AB%94</t>
   </si>
   <si>
-    <t>二極體</t>
+    <t>二极体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%85%89%E4%BA%8C%E6%A5%B5%E7%AE%A1</t>
   </si>
   <si>
-    <t>發光二極管</t>
+    <t>发光二极管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E6%9E%81%E6%80%A7%E6%99%B6%E4%BD%93%E7%AE%A1</t>
@@ -1589,31 +1586,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC%E6%B0%A7%E5%8C%96%E7%89%A9%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%A0%B4%E6%95%88%E9%9B%BB%E6%99%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>金屬氧化物半導體場效電晶體</t>
+    <t>金属氧化物半导体场效电晶体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%A3%9C%E5%BC%8F%E9%87%91%E5%B1%AC%E6%B0%A7%E5%8C%96%E7%89%A9%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>互補式金屬氧化物半導體</t>
+    <t>互补式金属氧化物半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E9%96%98%E7%AE%A1</t>
   </si>
   <si>
-    <t>晶閘管</t>
+    <t>晶闸管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%84%E8%86%9C%E9%9B%BB%E6%99%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>薄膜電晶體</t>
+    <t>薄膜电晶体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1631,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1643,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -8974,7 +8971,7 @@
         <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9000,10 +8997,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>462</v>
+      </c>
+      <c r="F242" t="s">
         <v>463</v>
-      </c>
-      <c r="F242" t="s">
-        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9029,10 +9026,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>464</v>
+      </c>
+      <c r="F243" t="s">
         <v>465</v>
-      </c>
-      <c r="F243" t="s">
-        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9058,10 +9055,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>466</v>
+      </c>
+      <c r="F244" t="s">
         <v>467</v>
-      </c>
-      <c r="F244" t="s">
-        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9087,10 +9084,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>468</v>
+      </c>
+      <c r="F245" t="s">
         <v>469</v>
-      </c>
-      <c r="F245" t="s">
-        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9116,10 +9113,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>470</v>
+      </c>
+      <c r="F246" t="s">
         <v>471</v>
-      </c>
-      <c r="F246" t="s">
-        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9145,10 +9142,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>472</v>
+      </c>
+      <c r="F247" t="s">
         <v>473</v>
-      </c>
-      <c r="F247" t="s">
-        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9174,10 +9171,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>474</v>
+      </c>
+      <c r="F248" t="s">
         <v>475</v>
-      </c>
-      <c r="F248" t="s">
-        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9203,10 +9200,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>476</v>
+      </c>
+      <c r="F249" t="s">
         <v>477</v>
-      </c>
-      <c r="F249" t="s">
-        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9232,10 +9229,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>478</v>
+      </c>
+      <c r="F250" t="s">
         <v>479</v>
-      </c>
-      <c r="F250" t="s">
-        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9261,10 +9258,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>480</v>
+      </c>
+      <c r="F251" t="s">
         <v>481</v>
-      </c>
-      <c r="F251" t="s">
-        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9290,10 +9287,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>482</v>
+      </c>
+      <c r="F252" t="s">
         <v>483</v>
-      </c>
-      <c r="F252" t="s">
-        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9319,10 +9316,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>484</v>
+      </c>
+      <c r="F253" t="s">
         <v>485</v>
-      </c>
-      <c r="F253" t="s">
-        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9348,10 +9345,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>486</v>
+      </c>
+      <c r="F254" t="s">
         <v>487</v>
-      </c>
-      <c r="F254" t="s">
-        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9377,10 +9374,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>488</v>
+      </c>
+      <c r="F255" t="s">
         <v>489</v>
-      </c>
-      <c r="F255" t="s">
-        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>5</v>
@@ -9406,10 +9403,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>490</v>
+      </c>
+      <c r="F256" t="s">
         <v>491</v>
-      </c>
-      <c r="F256" t="s">
-        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9435,10 +9432,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>492</v>
+      </c>
+      <c r="F257" t="s">
         <v>493</v>
-      </c>
-      <c r="F257" t="s">
-        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9464,10 +9461,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>494</v>
+      </c>
+      <c r="F258" t="s">
         <v>495</v>
-      </c>
-      <c r="F258" t="s">
-        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9493,10 +9490,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>496</v>
+      </c>
+      <c r="F259" t="s">
         <v>497</v>
-      </c>
-      <c r="F259" t="s">
-        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9522,10 +9519,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>498</v>
+      </c>
+      <c r="F260" t="s">
         <v>499</v>
-      </c>
-      <c r="F260" t="s">
-        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9551,10 +9548,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>500</v>
+      </c>
+      <c r="F261" t="s">
         <v>501</v>
-      </c>
-      <c r="F261" t="s">
-        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9580,10 +9577,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>502</v>
+      </c>
+      <c r="F262" t="s">
         <v>503</v>
-      </c>
-      <c r="F262" t="s">
-        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9609,10 +9606,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>504</v>
+      </c>
+      <c r="F263" t="s">
         <v>505</v>
-      </c>
-      <c r="F263" t="s">
-        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9638,10 +9635,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>506</v>
+      </c>
+      <c r="F264" t="s">
         <v>507</v>
-      </c>
-      <c r="F264" t="s">
-        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9667,10 +9664,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>508</v>
+      </c>
+      <c r="F265" t="s">
         <v>509</v>
-      </c>
-      <c r="F265" t="s">
-        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9696,10 +9693,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>510</v>
+      </c>
+      <c r="F266" t="s">
         <v>511</v>
-      </c>
-      <c r="F266" t="s">
-        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -9725,10 +9722,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>512</v>
+      </c>
+      <c r="F267" t="s">
         <v>513</v>
-      </c>
-      <c r="F267" t="s">
-        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -9754,10 +9751,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>514</v>
+      </c>
+      <c r="F268" t="s">
         <v>515</v>
-      </c>
-      <c r="F268" t="s">
-        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9783,10 +9780,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>516</v>
+      </c>
+      <c r="F269" t="s">
         <v>517</v>
-      </c>
-      <c r="F269" t="s">
-        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9812,10 +9809,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>518</v>
+      </c>
+      <c r="F270" t="s">
         <v>519</v>
-      </c>
-      <c r="F270" t="s">
-        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9841,10 +9838,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>520</v>
+      </c>
+      <c r="F271" t="s">
         <v>521</v>
-      </c>
-      <c r="F271" t="s">
-        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -9870,10 +9867,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>522</v>
+      </c>
+      <c r="F272" t="s">
         <v>523</v>
-      </c>
-      <c r="F272" t="s">
-        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9899,10 +9896,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>524</v>
+      </c>
+      <c r="F273" t="s">
         <v>525</v>
-      </c>
-      <c r="F273" t="s">
-        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9928,10 +9925,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>526</v>
+      </c>
+      <c r="F274" t="s">
         <v>527</v>
-      </c>
-      <c r="F274" t="s">
-        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9957,10 +9954,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>528</v>
+      </c>
+      <c r="F275" t="s">
         <v>529</v>
-      </c>
-      <c r="F275" t="s">
-        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9986,10 +9983,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>530</v>
+      </c>
+      <c r="F276" t="s">
         <v>531</v>
-      </c>
-      <c r="F276" t="s">
-        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>3</v>
@@ -10015,10 +10012,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>532</v>
+      </c>
+      <c r="F277" t="s">
         <v>533</v>
-      </c>
-      <c r="F277" t="s">
-        <v>534</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10044,10 +10041,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>534</v>
+      </c>
+      <c r="F278" t="s">
         <v>535</v>
-      </c>
-      <c r="F278" t="s">
-        <v>536</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10073,10 +10070,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>536</v>
+      </c>
+      <c r="F279" t="s">
         <v>537</v>
-      </c>
-      <c r="F279" t="s">
-        <v>538</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10102,10 +10099,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>538</v>
+      </c>
+      <c r="F280" t="s">
         <v>539</v>
-      </c>
-      <c r="F280" t="s">
-        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10131,10 +10128,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>540</v>
+      </c>
+      <c r="F281" t="s">
         <v>541</v>
-      </c>
-      <c r="F281" t="s">
-        <v>542</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
